--- a/VytrackTestUsers.xlsx
+++ b/VytrackTestUsers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/IdeaProjects/va-spring-2019-selenium-testng/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bars\IdeaProjects\SeleniumPractice2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDDC9C1-934F-044B-80DB-58DA20C1AFF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2738786-D85E-4BA9-9D9B-732B443EEFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41120" yWindow="1540" windowWidth="33600" windowHeight="18920" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1482">
   <si>
     <t>username</t>
   </si>
@@ -4470,12 +4470,25 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4827,13 +4840,13 @@
       <selection activeCell="A231" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4847,7 +4860,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4861,7 +4874,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4875,7 +4888,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4889,7 +4902,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4903,7 +4916,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4917,7 +4930,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +4944,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4945,7 +4958,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4959,7 +4972,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4973,7 +4986,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +5000,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5001,7 +5014,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5015,7 +5028,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5029,7 +5042,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5043,7 +5056,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5057,7 +5070,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5071,7 +5084,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5085,7 +5098,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5099,7 +5112,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5113,7 +5126,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5127,7 +5140,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5141,7 +5154,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5155,7 +5168,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5169,7 +5182,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5183,7 +5196,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5197,7 +5210,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5211,7 +5224,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5225,7 +5238,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5239,7 +5252,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5253,7 +5266,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5267,7 +5280,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5281,7 +5294,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5295,7 +5308,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5309,7 +5322,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5323,7 +5336,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5337,7 +5350,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5351,7 +5364,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5365,7 +5378,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5379,7 +5392,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5393,7 +5406,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5407,7 +5420,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5421,7 +5434,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5435,7 +5448,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5449,7 +5462,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5463,7 +5476,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5477,7 +5490,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5491,7 +5504,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5505,7 +5518,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5519,7 +5532,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5533,7 +5546,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5547,7 +5560,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5561,7 +5574,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5575,7 +5588,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5589,7 +5602,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5603,7 +5616,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5617,7 +5630,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5631,7 +5644,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5645,7 +5658,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5659,7 +5672,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5673,7 +5686,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5687,7 +5700,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5701,7 +5714,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5715,7 +5728,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5729,7 +5742,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5743,7 +5756,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5757,7 +5770,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5771,7 +5784,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5785,7 +5798,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5799,7 +5812,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5813,7 +5826,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5827,7 +5840,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5841,7 +5854,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5855,7 +5868,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5869,7 +5882,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5883,7 +5896,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5897,7 +5910,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5911,7 +5924,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5925,7 +5938,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5939,7 +5952,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5953,7 +5966,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5967,7 +5980,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5981,7 +5994,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5995,7 +6008,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6009,7 +6022,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6023,7 +6036,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6037,7 +6050,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6051,7 +6064,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6065,7 +6078,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6079,7 +6092,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6093,7 +6106,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6107,7 +6120,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6121,7 +6134,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6135,7 +6148,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6149,7 +6162,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6163,7 +6176,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6177,7 +6190,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6191,7 +6204,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6205,7 +6218,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6219,7 +6232,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6233,7 +6246,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6247,7 +6260,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6261,7 +6274,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6275,7 +6288,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6289,7 +6302,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6303,7 +6316,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6317,7 +6330,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6331,7 +6344,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6345,7 +6358,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6359,7 +6372,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6373,7 +6386,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6387,7 +6400,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6401,7 +6414,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6415,7 +6428,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6429,7 +6442,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6443,7 +6456,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6457,7 +6470,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6471,7 +6484,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6485,7 +6498,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6499,7 +6512,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6513,7 +6526,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6541,7 +6554,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6555,7 +6568,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6569,7 +6582,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6583,7 +6596,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6610,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6611,7 +6624,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6625,7 +6638,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6639,7 +6652,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6653,7 +6666,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6667,7 +6680,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6681,7 +6694,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6695,7 +6708,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6709,7 +6722,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6723,7 +6736,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6737,7 +6750,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6751,7 +6764,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6765,7 +6778,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6779,7 +6792,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6793,7 +6806,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6807,7 +6820,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6821,7 +6834,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6835,7 +6848,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6849,7 +6862,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6863,7 +6876,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6877,7 +6890,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6891,7 +6904,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6905,7 +6918,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6919,7 +6932,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6933,7 +6946,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6947,7 +6960,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6961,7 +6974,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6975,7 +6988,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6989,7 +7002,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7003,7 +7016,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7017,7 +7030,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7031,7 +7044,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7045,7 +7058,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7059,7 +7072,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7073,7 +7086,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7087,7 +7100,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7101,7 +7114,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7115,7 +7128,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7129,7 +7142,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7143,7 +7156,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7157,7 +7170,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7171,7 +7184,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7185,7 +7198,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7199,7 +7212,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7213,7 +7226,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7227,7 +7240,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7241,7 +7254,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7255,7 +7268,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7269,7 +7282,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7283,7 +7296,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7297,7 +7310,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7311,7 +7324,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7325,7 +7338,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7339,7 +7352,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7353,7 +7366,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7367,7 +7380,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7381,7 +7394,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -7395,7 +7408,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -7409,7 +7422,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7423,7 +7436,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7437,7 +7450,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7451,7 +7464,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7465,7 +7478,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -7479,7 +7492,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7493,7 +7506,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -7507,7 +7520,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -7521,7 +7534,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -7535,7 +7548,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -7549,7 +7562,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -7563,7 +7576,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -7577,7 +7590,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -7591,7 +7604,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -7605,7 +7618,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -7619,7 +7632,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -7633,7 +7646,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -7647,7 +7660,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -7661,7 +7674,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -7675,7 +7688,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -7689,7 +7702,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7703,7 +7716,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -7717,7 +7730,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -7731,7 +7744,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7745,7 +7758,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7759,7 +7772,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7773,7 +7786,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -7787,7 +7800,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -7801,7 +7814,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7815,7 +7828,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -7829,7 +7842,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7843,7 +7856,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -7857,7 +7870,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7871,7 +7884,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7885,7 +7898,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7899,7 +7912,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7913,7 +7926,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7927,7 +7940,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7941,7 +7954,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7955,7 +7968,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7969,7 +7982,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7983,7 +7996,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -7997,7 +8010,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8011,7 +8024,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8025,7 +8038,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8039,7 +8052,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8053,7 +8066,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8067,7 +8080,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8081,7 +8094,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8095,7 +8108,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8109,7 +8122,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8123,7 +8136,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8137,7 +8150,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8151,7 +8164,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8165,7 +8178,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8179,7 +8192,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8193,7 +8206,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8207,7 +8220,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8221,7 +8234,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8235,7 +8248,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8249,7 +8262,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8263,7 +8276,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8277,7 +8290,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8291,7 +8304,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8305,7 +8318,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8319,7 +8332,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8333,7 +8346,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8347,7 +8360,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8361,7 +8374,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8375,7 +8388,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8389,7 +8402,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8403,7 +8416,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8417,7 +8430,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8431,7 +8444,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8445,7 +8458,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8459,7 +8472,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8473,7 +8486,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8487,7 +8500,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8501,7 +8514,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8515,7 +8528,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8529,7 +8542,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8543,7 +8556,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8557,7 +8570,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -8571,7 +8584,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8585,7 +8598,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8599,7 +8612,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8613,7 +8626,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8627,7 +8640,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8641,7 +8654,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -8655,7 +8668,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8669,7 +8682,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -8683,7 +8696,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -8697,7 +8710,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8711,7 +8724,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -8725,7 +8738,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -8739,7 +8752,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -8753,7 +8766,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -8767,7 +8780,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -8795,7 +8808,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -8809,7 +8822,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -8823,7 +8836,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -8837,7 +8850,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -8851,7 +8864,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -8865,7 +8878,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -8879,7 +8892,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -8893,7 +8906,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -8907,7 +8920,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -8921,7 +8934,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -8935,7 +8948,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -8949,7 +8962,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -8963,7 +8976,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -8977,7 +8990,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -8991,7 +9004,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -9005,7 +9018,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9019,7 +9032,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9033,7 +9046,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9047,7 +9060,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -9071,13 +9084,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -9097,7 +9110,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -9117,7 +9130,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -9137,7 +9150,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -9157,7 +9170,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -9177,7 +9190,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -9197,7 +9210,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -9217,7 +9230,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -9237,7 +9250,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -9257,7 +9270,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -9277,7 +9290,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -9297,7 +9310,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -9317,7 +9330,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -9337,7 +9350,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -9357,7 +9370,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -9377,7 +9390,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -9410,13 +9423,13 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9430,7 +9443,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9444,7 +9457,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9458,7 +9471,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9472,7 +9485,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9486,7 +9499,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9500,7 +9513,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9514,7 +9527,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9528,7 +9541,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9542,7 +9555,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9556,7 +9569,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9570,7 +9583,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9584,7 +9597,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9598,7 +9611,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9612,7 +9625,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9626,7 +9639,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9640,7 +9653,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9654,7 +9667,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9668,7 +9681,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -9682,7 +9695,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9696,7 +9709,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9710,7 +9723,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9724,7 +9737,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9738,7 +9751,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9752,7 +9765,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9766,7 +9779,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9780,7 +9793,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9794,7 +9807,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9808,7 +9821,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9822,7 +9835,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9836,7 +9849,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9850,7 +9863,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9864,7 +9877,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9878,7 +9891,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9892,7 +9905,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9906,7 +9919,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9920,7 +9933,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9934,7 +9947,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9948,7 +9961,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9962,7 +9975,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9976,7 +9989,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9990,7 +10003,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -10004,7 +10017,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -10018,7 +10031,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -10032,7 +10045,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -10046,7 +10059,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10060,7 +10073,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -10074,7 +10087,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -10088,7 +10101,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10102,7 +10115,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10116,7 +10129,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -10130,7 +10143,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10144,7 +10157,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10158,7 +10171,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -10172,7 +10185,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10186,7 +10199,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10200,7 +10213,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10214,7 +10227,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -10228,7 +10241,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -10242,7 +10255,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -10256,7 +10269,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10270,7 +10283,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -10284,7 +10297,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10298,7 +10311,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10312,7 +10325,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10326,7 +10339,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10340,7 +10353,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10354,7 +10367,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10368,7 +10381,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -10382,7 +10395,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10396,7 +10409,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10410,7 +10423,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10424,7 +10437,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10438,7 +10451,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10452,7 +10465,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10466,7 +10479,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10480,7 +10493,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10494,7 +10507,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10508,7 +10521,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10522,7 +10535,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -10536,7 +10549,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -10550,7 +10563,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -10564,7 +10577,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -10578,7 +10591,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -10592,7 +10605,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -10606,7 +10619,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -10620,7 +10633,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -10634,7 +10647,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10648,7 +10661,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -10662,7 +10675,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -10676,7 +10689,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -10690,7 +10703,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10704,7 +10717,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -10718,7 +10731,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -10732,7 +10745,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -10746,7 +10759,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10760,7 +10773,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -10774,7 +10787,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -10788,7 +10801,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10802,7 +10815,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -10816,7 +10829,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -10830,7 +10843,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -10844,7 +10857,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -10858,7 +10871,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -10872,7 +10885,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -10886,7 +10899,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -10900,7 +10913,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -10914,7 +10927,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -10928,7 +10941,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -10942,7 +10955,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -10956,7 +10969,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -10970,7 +10983,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -10984,7 +10997,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -10998,7 +11011,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -11012,7 +11025,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -11026,7 +11039,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -11040,7 +11053,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -11054,7 +11067,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -11068,7 +11081,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -11082,7 +11095,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -11096,7 +11109,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -11110,7 +11123,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -11124,7 +11137,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -11138,7 +11151,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -11152,7 +11165,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -11166,7 +11179,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -11180,7 +11193,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -11194,7 +11207,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -11208,7 +11221,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -11222,7 +11235,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -11236,7 +11249,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -11250,7 +11263,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -11264,7 +11277,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -11278,7 +11291,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -11292,7 +11305,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -11306,7 +11319,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -11320,7 +11333,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -11334,7 +11347,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -11348,7 +11361,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -11362,7 +11375,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -11376,7 +11389,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -11390,7 +11403,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -11404,7 +11417,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -11418,7 +11431,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -11432,7 +11445,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -11446,7 +11459,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -11460,7 +11473,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -11474,7 +11487,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -11488,7 +11501,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -11502,7 +11515,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -11516,7 +11529,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -11530,7 +11543,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -11544,7 +11557,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -11558,7 +11571,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11572,7 +11585,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -11586,7 +11599,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -11600,7 +11613,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -11614,7 +11627,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -11628,7 +11641,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -11642,7 +11655,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -11656,7 +11669,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -11670,7 +11683,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -11684,7 +11697,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -11698,7 +11711,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -11712,7 +11725,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -11726,7 +11739,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -11740,7 +11753,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -11754,7 +11767,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -11768,7 +11781,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -11782,7 +11795,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -11796,7 +11809,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -11810,7 +11823,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -11824,7 +11837,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -11838,7 +11851,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -11852,7 +11865,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -11866,7 +11879,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -11880,7 +11893,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -11894,7 +11907,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -11908,7 +11921,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -11922,7 +11935,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -11936,7 +11949,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -11950,7 +11963,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -11964,7 +11977,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -11978,7 +11991,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -11992,7 +12005,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -12006,7 +12019,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -12020,7 +12033,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -12034,7 +12047,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -12048,7 +12061,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -12062,7 +12075,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -12076,7 +12089,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -12090,7 +12103,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -12104,7 +12117,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -12118,7 +12131,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -12132,7 +12145,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -12146,7 +12159,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -12160,7 +12173,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -12174,7 +12187,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -12188,7 +12201,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -12202,7 +12215,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -12216,7 +12229,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -12230,7 +12243,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -12244,7 +12257,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -12258,7 +12271,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -12272,7 +12285,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -12286,7 +12299,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -12300,7 +12313,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -12314,7 +12327,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -12328,7 +12341,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -12342,7 +12355,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -12356,7 +12369,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -12370,7 +12383,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -12384,7 +12397,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -12398,7 +12411,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -12412,7 +12425,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -12426,7 +12439,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -12440,7 +12453,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -12454,7 +12467,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -12468,7 +12481,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -12482,7 +12495,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -12496,7 +12509,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -12510,7 +12523,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -12524,7 +12537,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -12538,7 +12551,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -12552,7 +12565,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -12566,7 +12579,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -12580,7 +12593,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12594,7 +12607,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12608,7 +12621,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -12622,7 +12635,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12636,7 +12649,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -12650,7 +12663,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -12664,7 +12677,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -12678,7 +12691,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -12692,7 +12705,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -12706,7 +12719,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -12720,7 +12733,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -12734,7 +12747,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -12748,7 +12761,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -12762,7 +12775,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -12776,7 +12789,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -12790,7 +12803,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -12804,7 +12817,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -12818,7 +12831,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -12832,7 +12845,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -12846,7 +12859,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -12860,7 +12873,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -12874,7 +12887,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -12888,7 +12901,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -12902,7 +12915,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -12916,7 +12929,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -12930,7 +12943,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -12944,7 +12957,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -12958,7 +12971,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -12972,7 +12985,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -12986,7 +12999,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -13000,7 +13013,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -13014,7 +13027,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -13028,7 +13041,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -13042,7 +13055,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -13056,7 +13069,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -13070,7 +13083,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -13084,7 +13097,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -13098,7 +13111,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -13112,7 +13125,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -13126,7 +13139,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -13140,7 +13153,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -13154,7 +13167,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -13168,7 +13181,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -13182,7 +13195,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -13196,7 +13209,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -13210,7 +13223,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -13224,7 +13237,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -13238,7 +13251,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -13252,7 +13265,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -13266,7 +13279,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -13280,7 +13293,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -13294,7 +13307,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -13308,7 +13321,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -13322,7 +13335,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -13336,7 +13349,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -13350,7 +13363,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -13364,7 +13377,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -13378,7 +13391,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -13392,7 +13405,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -13406,7 +13419,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -13420,7 +13433,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -13434,7 +13447,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13448,7 +13461,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -13462,7 +13475,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -13476,7 +13489,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -13490,7 +13503,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -13504,7 +13517,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -13518,7 +13531,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -13532,7 +13545,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -13546,7 +13559,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -13560,7 +13573,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -13574,7 +13587,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -13588,7 +13601,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -13602,7 +13615,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -13616,7 +13629,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -13630,7 +13643,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -13657,13 +13670,13 @@
       <selection activeCell="F1" sqref="F1:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -13683,7 +13696,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -13703,7 +13716,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -13723,7 +13736,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -13743,7 +13756,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -13763,7 +13776,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -13783,7 +13796,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -13803,7 +13816,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -13823,7 +13836,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -13843,7 +13856,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -13863,7 +13876,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -13883,7 +13896,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -13903,7 +13916,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -13923,7 +13936,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -13943,7 +13956,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -13963,7 +13976,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -13996,13 +14009,13 @@
       <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14016,7 +14029,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14030,7 +14043,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14044,7 +14057,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14058,7 +14071,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14072,7 +14085,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14086,7 +14099,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14100,7 +14113,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14114,7 +14127,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14128,7 +14141,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14142,7 +14155,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14156,7 +14169,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14170,7 +14183,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14184,7 +14197,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14198,7 +14211,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14212,7 +14225,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14226,7 +14239,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14240,7 +14253,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14254,7 +14267,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14268,7 +14281,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14282,7 +14295,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14296,7 +14309,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14310,7 +14323,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14324,7 +14337,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14338,7 +14351,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14352,7 +14365,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14366,7 +14379,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14380,7 +14393,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14394,7 +14407,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14408,7 +14421,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14422,7 +14435,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14436,7 +14449,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14450,7 +14463,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -14464,7 +14477,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14478,7 +14491,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14492,7 +14505,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -14506,7 +14519,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -14520,7 +14533,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -14534,7 +14547,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -14548,7 +14561,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -14562,7 +14575,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -14576,7 +14589,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -14590,7 +14603,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -14604,7 +14617,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -14618,7 +14631,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -14632,7 +14645,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -14646,7 +14659,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -14660,7 +14673,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -14674,7 +14687,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -14688,7 +14701,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -14702,7 +14715,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -14716,7 +14729,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -14730,7 +14743,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -14744,7 +14757,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -14758,7 +14771,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -14772,7 +14785,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -14786,7 +14799,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -14800,7 +14813,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -14814,7 +14827,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -14828,7 +14841,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -14842,7 +14855,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -14856,7 +14869,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -14870,7 +14883,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -14884,7 +14897,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -14898,7 +14911,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -14912,7 +14925,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -14926,7 +14939,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14940,7 +14953,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -14954,7 +14967,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -14968,7 +14981,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -14982,7 +14995,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -14996,7 +15009,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -15010,7 +15023,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -15024,7 +15037,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -15038,7 +15051,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -15052,7 +15065,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -15066,7 +15079,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -15080,7 +15093,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -15094,7 +15107,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -15108,7 +15121,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -15122,7 +15135,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -15136,7 +15149,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -15150,7 +15163,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -15164,7 +15177,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -15178,7 +15191,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -15192,7 +15205,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -15206,7 +15219,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -15220,7 +15233,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -15234,7 +15247,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -15248,7 +15261,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -15262,7 +15275,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -15276,7 +15289,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -15290,7 +15303,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -15304,7 +15317,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -15318,7 +15331,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -15332,7 +15345,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -15346,7 +15359,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -15360,7 +15373,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -15374,7 +15387,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -15388,7 +15401,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -15402,7 +15415,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -15416,7 +15429,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -15430,7 +15443,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -15444,7 +15457,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -15458,7 +15471,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -15472,7 +15485,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -15486,7 +15499,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -15500,7 +15513,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -15514,7 +15527,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -15528,7 +15541,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -15542,7 +15555,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -15556,7 +15569,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -15570,7 +15583,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -15584,7 +15597,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -15598,7 +15611,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -15612,7 +15625,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -15626,7 +15639,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -15640,7 +15653,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15654,7 +15667,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -15668,7 +15681,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -15682,7 +15695,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -15696,7 +15709,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -15710,7 +15723,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -15724,7 +15737,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -15738,7 +15751,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -15752,7 +15765,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -15766,7 +15779,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -15780,7 +15793,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -15794,7 +15807,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -15808,7 +15821,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -15822,7 +15835,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -15836,7 +15849,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -15850,7 +15863,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -15864,7 +15877,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -15878,7 +15891,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -15892,7 +15905,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -15906,7 +15919,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -15920,7 +15933,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -15934,7 +15947,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -15948,7 +15961,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -15962,7 +15975,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15976,7 +15989,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -15990,7 +16003,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -16004,7 +16017,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -16018,7 +16031,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -16032,7 +16045,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -16046,7 +16059,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -16060,7 +16073,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -16074,7 +16087,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -16088,7 +16101,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -16102,7 +16115,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -16116,7 +16129,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -16130,7 +16143,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -16144,7 +16157,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -16158,7 +16171,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16172,7 +16185,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -16186,7 +16199,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -16200,7 +16213,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -16214,7 +16227,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -16228,7 +16241,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -16242,7 +16255,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -16256,7 +16269,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -16270,7 +16283,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -16284,7 +16297,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -16298,7 +16311,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -16312,7 +16325,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -16326,7 +16339,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -16340,7 +16353,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -16354,7 +16367,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -16368,7 +16381,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -16382,7 +16395,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -16396,7 +16409,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -16410,7 +16423,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -16424,7 +16437,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -16438,7 +16451,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -16452,7 +16465,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -16466,7 +16479,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -16480,7 +16493,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -16494,7 +16507,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -16508,7 +16521,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -16522,7 +16535,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -16536,7 +16549,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -16550,7 +16563,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -16564,7 +16577,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -16578,7 +16591,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -16592,7 +16605,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -16606,7 +16619,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -16620,7 +16633,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -16634,7 +16647,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -16648,7 +16661,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -16662,7 +16675,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -16676,7 +16689,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -16690,7 +16703,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -16704,7 +16717,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -16718,7 +16731,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -16732,7 +16745,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -16746,7 +16759,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -16760,7 +16773,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -16774,7 +16787,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -16788,7 +16801,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -16802,7 +16815,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -16816,7 +16829,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -16830,7 +16843,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -16844,7 +16857,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -16858,7 +16871,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -16872,7 +16885,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -16886,7 +16899,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -16900,7 +16913,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -16914,7 +16927,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -16928,7 +16941,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -16942,7 +16955,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -16956,7 +16969,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -16970,7 +16983,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -16984,7 +16997,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -16998,7 +17011,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -17012,7 +17025,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -17026,7 +17039,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -17040,7 +17053,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -17054,7 +17067,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -17068,7 +17081,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -17082,7 +17095,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -17096,7 +17109,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -17110,7 +17123,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -17124,7 +17137,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -17138,7 +17151,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -17152,7 +17165,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -17166,7 +17179,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -17180,7 +17193,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -17194,7 +17207,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -17208,7 +17221,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -17222,7 +17235,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -17236,7 +17249,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -17250,7 +17263,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -17264,7 +17277,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -17278,7 +17291,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -17292,7 +17305,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -17306,7 +17319,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -17320,7 +17333,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -17334,7 +17347,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -17348,7 +17361,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -17362,7 +17375,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -17376,7 +17389,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -17390,7 +17403,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -17404,7 +17417,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -17418,7 +17431,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -17432,7 +17445,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -17446,7 +17459,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -17460,7 +17473,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -17474,7 +17487,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -17488,7 +17501,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -17502,7 +17515,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -17516,7 +17529,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -17530,7 +17543,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -17544,7 +17557,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -17558,7 +17571,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -17572,7 +17585,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -17586,7 +17599,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -17600,7 +17613,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -17614,7 +17627,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -17628,7 +17641,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -17642,7 +17655,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -17656,7 +17669,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -17670,7 +17683,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -17684,7 +17697,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -17698,7 +17711,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -17712,7 +17725,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -17726,7 +17739,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -17740,7 +17753,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -17754,7 +17767,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -17768,7 +17781,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -17782,7 +17795,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -17796,7 +17809,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -17810,7 +17823,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -17824,7 +17837,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -17838,7 +17851,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -17852,7 +17865,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -17866,7 +17879,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -17880,7 +17893,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -17894,7 +17907,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -17908,7 +17921,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -17922,7 +17935,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -17936,7 +17949,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -17950,7 +17963,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -17964,7 +17977,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -17978,7 +17991,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -17992,7 +18005,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -18006,7 +18019,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -18020,7 +18033,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -18034,7 +18047,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -18048,7 +18061,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -18062,7 +18075,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -18076,7 +18089,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -18090,7 +18103,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -18104,7 +18117,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -18118,7 +18131,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -18132,7 +18145,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -18146,7 +18159,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -18160,7 +18173,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -18174,7 +18187,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -18188,7 +18201,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -18202,7 +18215,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -18216,7 +18229,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -18239,17 +18252,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -18269,7 +18282,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -18286,10 +18299,10 @@
         <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -18306,10 +18319,10 @@
         <v>725</v>
       </c>
       <c r="F3" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -18326,10 +18339,10 @@
         <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -18346,10 +18359,10 @@
         <v>610</v>
       </c>
       <c r="F5" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -18366,10 +18379,10 @@
         <v>1021</v>
       </c>
       <c r="F6" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -18386,10 +18399,10 @@
         <v>1274</v>
       </c>
       <c r="F7" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -18406,10 +18419,10 @@
         <v>337</v>
       </c>
       <c r="F8" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -18426,10 +18439,10 @@
         <v>796</v>
       </c>
       <c r="F9" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -18446,10 +18459,10 @@
         <v>644</v>
       </c>
       <c r="F10" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -18466,10 +18479,10 @@
         <v>586</v>
       </c>
       <c r="F11" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -18486,10 +18499,10 @@
         <v>1375</v>
       </c>
       <c r="F12" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -18506,10 +18519,10 @@
         <v>1001</v>
       </c>
       <c r="F13" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -18526,10 +18539,10 @@
         <v>1378</v>
       </c>
       <c r="F14" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -18546,10 +18559,10 @@
         <v>1379</v>
       </c>
       <c r="F15" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -18566,7 +18579,7 @@
         <v>1381</v>
       </c>
       <c r="F16" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
